--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87198.53592314142</v>
+        <v>79554.47406911093</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3551146.839779032</v>
+        <v>3551146.839779033</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="F8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30.70785528783223</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.1812531179677</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>77.76273317180835</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>22.33910840579955</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="D10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="F10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.083910542461</v>
+        <v>104.8891084058</v>
       </c>
       <c r="W10" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>14.63438199418714</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>136.0064493494221</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.09262707756164</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0.4925403463341308</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>181.9350240293736</v>
+        <v>244.9575147694479</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1821,19 +1821,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>138.7434236076974</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>215.1984397384045</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.7805097865404</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>195.7731869217376</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>110.2762206011265</v>
+        <v>96.26811891357563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>117.7416848562053</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.8454278428345</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2298,7 +2298,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>169.2166996703676</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2320,19 +2320,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>250.8057568678515</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>369.7045786613153</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>49.34995949258659</v>
+        <v>13.69228974266179</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>170.8454278428343</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>210.1418397505081</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258659</v>
+        <v>111.4016648880123</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>256.6584539847825</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>338.6830497639203</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>75.93725220032044</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>115.0108944554316</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>227.2744228306958</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>170.3034090720304</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>156.7012890994291</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>370.6365053787341</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>74.42811009354939</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>56.48620893916019</v>
       </c>
       <c r="C40" t="n">
-        <v>89.30668535812342</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>315.1723433222103</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>65.4570982192799</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>89.30668535812433</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>55.96684102370052</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.7012890994293</v>
+        <v>312.3784510934711</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,10 +3985,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>161.8256092923327</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>89.30668535812433</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1002694948332</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948332</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948332</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="E8" t="n">
-        <v>129.813491169115</v>
+        <v>160.8315268133905</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396878</v>
+        <v>40.5447484876719</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585557</v>
+        <v>23.57954741585571</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558019</v>
+        <v>55.41632306558045</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318069</v>
+        <v>103.1313969318073</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183094</v>
+        <v>162.3261653183101</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590931</v>
+        <v>228.191750759094</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326581</v>
+        <v>295.1231102326592</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.3244950336437</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745567</v>
+        <v>412.2654147455685</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245013</v>
+        <v>452.772799024503</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648277</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648277</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648277</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698438</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="W8" t="n">
-        <v>476.3356421698438</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="X8" t="n">
-        <v>476.3356421698438</v>
+        <v>281.1183051391091</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.3870478205513</v>
+        <v>281.1183051391091</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.91055122723526</v>
+        <v>296.3970358980971</v>
       </c>
       <c r="C9" t="n">
-        <v>92.91055122723526</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="D9" t="n">
-        <v>92.91055122723526</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="E9" t="n">
-        <v>92.91055122723526</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396878</v>
+        <v>134.4649821891998</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114683</v>
+        <v>42.50045791160449</v>
       </c>
       <c r="J9" t="n">
-        <v>134.3298561881832</v>
+        <v>160.3935293486413</v>
       </c>
       <c r="K9" t="n">
-        <v>166.7385335674991</v>
+        <v>192.8022067279574</v>
       </c>
       <c r="L9" t="n">
-        <v>210.3159997831885</v>
+        <v>236.3796729436469</v>
       </c>
       <c r="M9" t="n">
-        <v>261.1688474406045</v>
+        <v>287.232520601063</v>
       </c>
       <c r="N9" t="n">
-        <v>313.3676186581414</v>
+        <v>339.4312918186001</v>
       </c>
       <c r="O9" t="n">
-        <v>361.1192964644741</v>
+        <v>387.1829696249331</v>
       </c>
       <c r="P9" t="n">
-        <v>399.4442277663362</v>
+        <v>425.5079009267953</v>
       </c>
       <c r="Q9" t="n">
-        <v>425.0634293973113</v>
+        <v>451.1271025577706</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698438</v>
+        <v>416.6838142238157</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698438</v>
+        <v>416.6838142238157</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441257</v>
+        <v>416.6838142238157</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184075</v>
+        <v>416.6838142238157</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926894</v>
+        <v>416.6838142238157</v>
       </c>
       <c r="X9" t="n">
-        <v>92.91055122723526</v>
+        <v>296.3970358980971</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.91055122723526</v>
+        <v>296.3970358980971</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.1002694948332</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="C10" t="n">
-        <v>250.1002694948332</v>
+        <v>250.1002694948341</v>
       </c>
       <c r="D10" t="n">
-        <v>129.813491169115</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="E10" t="n">
-        <v>129.813491169115</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396913</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>108.0024003011151</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381513</v>
+        <v>127.551186376067</v>
       </c>
       <c r="L10" t="n">
-        <v>250.9111875026085</v>
+        <v>152.5669021405243</v>
       </c>
       <c r="M10" t="n">
-        <v>277.2867523140635</v>
+        <v>178.9424669519794</v>
       </c>
       <c r="N10" t="n">
-        <v>303.0351651465882</v>
+        <v>204.6908797845042</v>
       </c>
       <c r="O10" t="n">
-        <v>326.8179918988067</v>
+        <v>240.5494992957721</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328075</v>
+        <v>358.4425707328089</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="U10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="V10" t="n">
-        <v>356.0488638441257</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="W10" t="n">
-        <v>250.1002694948332</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="X10" t="n">
-        <v>250.1002694948332</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.1002694948332</v>
+        <v>370.3870478205527</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1592.855172792597</v>
+        <v>1017.864239579285</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.072968758064</v>
+        <v>1017.864239579285</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>1017.864239579285</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>584.0894947375807</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.855172792597</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y11" t="n">
-        <v>1592.855172792597</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>828.1746199579901</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>890.3960001929074</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1349.126238781879</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C14" t="n">
-        <v>910.9837659653025</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D14" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5311,19 +5311,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2176.554825902915</v>
+        <v>2112.895744347284</v>
       </c>
       <c r="V14" t="n">
-        <v>2176.554825902915</v>
+        <v>1750.278794281111</v>
       </c>
       <c r="W14" t="n">
-        <v>2176.554825902915</v>
+        <v>1345.423339692144</v>
       </c>
       <c r="X14" t="n">
-        <v>1757.412362482226</v>
+        <v>1345.423339692144</v>
       </c>
       <c r="Y14" t="n">
-        <v>1349.126238781879</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.0944902899325</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C16" t="n">
-        <v>554.5327787731575</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6547859746801</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E16" t="n">
         <v>388.6547859746801</v>
@@ -5427,13 +5427,13 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,19 +5442,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1842.060047552668</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X16" t="n">
-        <v>918.9131090089197</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y16" t="n">
-        <v>918.9131090089197</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>908.8487259814518</v>
+        <v>863.5878719326196</v>
       </c>
       <c r="C17" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895473</v>
@@ -5512,7 +5512,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435805</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>2162.576883587396</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X17" t="n">
-        <v>1743.434420166706</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y17" t="n">
-        <v>1335.14829646636</v>
+        <v>1289.887442417527</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,7 +5585,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895473</v>
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>843.5014354710333</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C19" t="n">
-        <v>670.9397239542583</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D19" t="n">
-        <v>505.061731155781</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="E19" t="n">
-        <v>335.3037274065182</v>
+        <v>321.1541297423254</v>
       </c>
       <c r="F19" t="n">
-        <v>158.5966733682745</v>
+        <v>144.4470757040816</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895473</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092379</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1273.504261946392</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>835.361789129815</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>835.361789129815</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>835.361789129815</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.47212285877</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C22" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D22" t="n">
         <v>393.6716093364613</v>
@@ -5898,37 +5898,37 @@
         <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1329.17407462327</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N22" t="n">
-        <v>1898.931789584804</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5946,16 +5946,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.555602307689</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C23" t="n">
-        <v>728.4131294911122</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D23" t="n">
-        <v>728.4131294911122</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E23" t="n">
-        <v>728.4131294911122</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F23" t="n">
-        <v>300.5456999003199</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.855172792597</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.855172792597</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.855172792597</v>
+        <v>1734.650987786883</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.081764785142</v>
+        <v>807.9003835041283</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268367</v>
+        <v>635.3386719873532</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>326.783117436994</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9641928553089</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N25" t="n">
-        <v>1480.721907816843</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
         <v>2118.080353351143</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.47212285877</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C26" t="n">
-        <v>1517.329650042194</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D26" t="n">
-        <v>1081.419865216638</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>647.6451203749332</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>219.7776907841409</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
         <v>805.4408022867025</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1955.47212285877</v>
+        <v>1274.137829990514</v>
       </c>
       <c r="X26" t="n">
-        <v>1955.47212285877</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y26" t="n">
-        <v>1955.47212285877</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>843.5014354710333</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268367</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6393,16 +6393,16 @@
         <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6420,16 +6420,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>1035.320054190021</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>884.8517156860543</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C29" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D29" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E29" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1957.24425759636</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1552.388803007393</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>1293.137839386401</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y29" t="n">
-        <v>884.8517156860543</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>992.2890823372263</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>819.7273708204513</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>653.849378021974</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>484.0913742727112</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M31" t="n">
-        <v>875.5973915434845</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N31" t="n">
-        <v>1288.378132818745</v>
+        <v>1720.113561076154</v>
       </c>
       <c r="O31" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C32" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D32" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895473</v>
@@ -6700,22 +6700,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1785.939375850675</v>
+        <v>1732.846643991108</v>
       </c>
       <c r="W32" t="n">
-        <v>1381.083921261709</v>
+        <v>1327.991189402141</v>
       </c>
       <c r="X32" t="n">
-        <v>1151.513797190299</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="Y32" t="n">
-        <v>743.2276734899522</v>
+        <v>908.8487259814518</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
@@ -6861,22 +6861,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>326.783117436994</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M34" t="n">
-        <v>910.9641928553087</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N34" t="n">
-        <v>1480.721907816843</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>2215.901038951971</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1928.945530822401</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1941.185114027048</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C35" t="n">
-        <v>1503.042641210471</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D35" t="n">
-        <v>1067.132856384916</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>633.3581115432107</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F35" t="n">
-        <v>205.4906819524185</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1774.176017453481</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027048</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.185114027048</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C37" t="n">
-        <v>299.093514772602</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D37" t="n">
-        <v>299.093514772602</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>299.093514772602</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>122.3864607343582</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1019.751453776091</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1150.35584611462</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.854757918509</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1815.289888492053</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,22 +7198,22 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U38" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V38" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W38" t="n">
-        <v>2209.200554108492</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X38" t="n">
         <v>2209.200554108492</v>
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.4738450083632</v>
+        <v>750.8436067979059</v>
       </c>
       <c r="C40" t="n">
-        <v>573.2650719193497</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="D40" t="n">
-        <v>407.3870791208724</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E40" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G40" t="n">
         <v>242.6458987333908</v>
@@ -7329,55 +7329,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2101.256885969251</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1663.114413152674</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1227.204628327119</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>793.4298834854139</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>365.5624538946217</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867025</v>
@@ -7426,37 +7426,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.256885969251</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.256885969251</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.256885969251</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.256885969251</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>663.4738450083642</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>573.2650719193497</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D43" t="n">
-        <v>407.3870791208724</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E43" t="n">
-        <v>407.3870791208724</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7663,37 +7663,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1655.93506159508</v>
       </c>
       <c r="X44" t="n">
-        <v>1941.185114027048</v>
+        <v>1236.792598174391</v>
       </c>
       <c r="Y44" t="n">
-        <v>1941.185114027048</v>
+        <v>1236.792598174391</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>663.4738450083642</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>663.4738450083642</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>497.5958522098869</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E46" t="n">
-        <v>497.5958522098869</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>464.1452239003834</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>588.0160255186813</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>99.93061208465463</v>
+        <v>99.93061208465502</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.20322876385145</v>
+        <v>12.8762861775308</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190351</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>12.19777046368614</v>
       </c>
       <c r="P10" t="n">
-        <v>11.38814337090548</v>
+        <v>98.5280348891236</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340654</v>
+        <v>104.8520877340658</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>141.4680432173442</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>45.75904403825075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O22" t="n">
-        <v>158.2045317475397</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P25" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10041,16 +10041,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1634641124958</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>338.8290049885998</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>263.1722038422874</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>156.7304232042866</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.62967161639972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>263.8716243249362</v>
       </c>
       <c r="N40" t="n">
-        <v>177.1920849464598</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>176.4173968858561</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302.9526642375977</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23029,13 +23029,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>310.3530868508268</v>
+        <v>310.3530868508263</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524234</v>
+        <v>304.5048447524229</v>
       </c>
       <c r="G8" t="n">
-        <v>397.0049566522158</v>
+        <v>366.2971013643835</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,7 +23080,7 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230503</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -23089,7 +23089,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.3141540575435</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>27.62916337991578</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23114,10 +23114,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518719</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615968</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167697</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>130.9796529977093</v>
+        <v>34.23485086104739</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23181,16 +23181,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.7521838591459</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803157</v>
+        <v>45.13530232803112</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.9765131693087</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295540038</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>13.56162857616403</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23238,10 +23238,10 @@
         <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058129</v>
+        <v>179.1968446424738</v>
       </c>
       <c r="W10" t="n">
-        <v>164.4170319637718</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>419.1266660942238</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>287.5823059454622</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.84521004236</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.6529336326987</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -23551,19 +23551,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>74.54496053432754</v>
+        <v>11.52246979425331</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>145.3425294405764</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.73939738151716</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>54.98053830187052</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>205.0337131213394</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.81754798248025</v>
+        <v>66.82564967003113</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>305.847070438679</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.3578346205086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.8692533779062</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.7019075394661</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>31.10232138176167</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>114.8692533779059</v>
+        <v>150.5269231278307</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>224.6622365644833</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>190.6650602925689</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779059</v>
+        <v>52.81754798248026</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>158.2925848016999</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>65.52021269942276</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.00273129754089</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,16 +24925,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>243.9798861100801</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>187.6766159557866</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>81.67066052189108</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.002731297541</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>238.8063753078885</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,7 +25207,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>30.17039466434295</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>88.66565849005737</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>60.03778590972664</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806306</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>133.414223592637</v>
       </c>
       <c r="C40" t="n">
-        <v>81.52940904348389</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>80.3353210851073</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>293.5336823462318</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>81.52940904348299</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>107.1269275599062</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.3352856806295</v>
+        <v>109.6581236865876</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.393603578159855</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>85.63329813973701</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90268.87504952213</v>
+        <v>90268.87504952251</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399640.0713057705</v>
+        <v>399640.0713057704</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399640.0713057703</v>
+        <v>399640.0713057704</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399640.0713057703</v>
+        <v>399640.0713057704</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399640.0713057704</v>
+        <v>399640.0713057703</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399640.0713057704</v>
+        <v>399640.0713057703</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399640.0713057704</v>
+        <v>399640.0713057703</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072098</v>
+        <v>36428.59575072113</v>
       </c>
       <c r="E2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="F2" t="n">
         <v>165162.4498658582</v>
       </c>
       <c r="G2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="H2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="J2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="K2" t="n">
         <v>165162.4498658581</v>
@@ -26346,13 +26346,13 @@
         <v>165162.4498658581</v>
       </c>
       <c r="M2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="N2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="O2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="P2" t="n">
         <v>165162.4498658581</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730584</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180441</v>
+        <v>439858.2450180437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310199</v>
+        <v>30139.06600310213</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5372.082091296896</v>
+        <v>5372.082091296916</v>
       </c>
       <c r="E4" t="n">
         <v>14728.7909942616</v>
@@ -26438,7 +26438,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
       <c r="J4" t="n">
         <v>14728.7909942616</v>
@@ -26453,7 +26453,7 @@
         <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
       <c r="O4" t="n">
         <v>14728.79099426161</v>
@@ -26475,25 +26475,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
@@ -26502,16 +26502,16 @@
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129574.5161860262</v>
+        <v>-130741.4149821777</v>
       </c>
       <c r="E6" t="n">
-        <v>-335475.6673560854</v>
+        <v>-336029.547799307</v>
       </c>
       <c r="F6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187369</v>
       </c>
       <c r="G6" t="n">
-        <v>104382.5776619588</v>
+        <v>103828.6972187368</v>
       </c>
       <c r="H6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187368</v>
       </c>
       <c r="I6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187367</v>
       </c>
       <c r="J6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187368</v>
       </c>
       <c r="K6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187368</v>
       </c>
       <c r="L6" t="n">
-        <v>74243.5116588567</v>
+        <v>73689.63121563462</v>
       </c>
       <c r="M6" t="n">
-        <v>-12992.00389778931</v>
+        <v>-13545.88434101112</v>
       </c>
       <c r="N6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187368</v>
       </c>
       <c r="O6" t="n">
-        <v>104382.5776619588</v>
+        <v>103828.6972187367</v>
       </c>
       <c r="P6" t="n">
-        <v>104382.5776619587</v>
+        <v>103828.6972187367</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748048</v>
+        <v>94.25048217480516</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748048</v>
+        <v>94.25048217480516</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184164</v>
+        <v>372.451445918416</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194734</v>
+        <v>470.9979838194727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529839</v>
+        <v>0.3788964107529852</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623997</v>
+        <v>3.880372866624011</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.60740387555448</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214609</v>
+        <v>32.15835924214621</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.19704430932009</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990155</v>
+        <v>59.79269533990178</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462992</v>
+        <v>66.53089438463017</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168184</v>
+        <v>67.6074338116821</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725709</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679256</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670131</v>
+        <v>40.91654977670147</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196214</v>
+        <v>23.80085166196223</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033627</v>
+        <v>8.634101960033661</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071188</v>
+        <v>1.658619038071194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0303117128602387</v>
+        <v>0.03031171286023882</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.2027274522250526</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857738</v>
+        <v>1.957920393857745</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888847</v>
+        <v>6.979870613888874</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780633</v>
+        <v>19.1532984578064</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688492</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211049</v>
+        <v>44.01764264211066</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.3665127852688</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286557</v>
+        <v>52.72603153286577</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619468</v>
+        <v>48.23401798619486</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.7120518200629</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542943</v>
+        <v>25.87798144542953</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.58688514779757</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531114</v>
+        <v>3.765573509531128</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457131</v>
+        <v>0.8171338973457162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.01333733238322715</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.1699598858889929</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.51109789454032</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643514</v>
+        <v>5.111157295643533</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055746</v>
+        <v>19.74624856055753</v>
       </c>
       <c r="L10" t="n">
-        <v>25.268399762078</v>
+        <v>25.26839976207809</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803539</v>
+        <v>26.64198465803549</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.00849781063108</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.0230573254733</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.55587565333782</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517777</v>
+        <v>7.642014505517806</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083618</v>
+        <v>2.96193728408363</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075121</v>
+        <v>0.7261922397075149</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308678</v>
+        <v>0.009270539230308714</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32806,19 +32806,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,43 +33256,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,43 +33493,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33754,19 +33754,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642303</v>
+        <v>14.19478239642308</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214609</v>
+        <v>32.1583592421462</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.19704430932009</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990157</v>
+        <v>59.79269533990178</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462993</v>
+        <v>66.53089438463016</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168189</v>
+        <v>67.60743381168209</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725708</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670146</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>33.30681320020967</v>
       </c>
       <c r="J9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688491</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421105</v>
+        <v>44.01764264211067</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.36651278526881</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286559</v>
+        <v>52.72603153286576</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619466</v>
+        <v>48.23401798619489</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006287</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>51.79011391164897</v>
+        <v>25.46317132532835</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143241</v>
+        <v>99.47039137143247</v>
       </c>
       <c r="K10" t="n">
-        <v>119.083910542461</v>
+        <v>19.74624856055752</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.2683997620781</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803537</v>
+        <v>26.64198465803548</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063101</v>
+        <v>26.00849781063107</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547319</v>
+        <v>36.22082778915944</v>
       </c>
       <c r="P10" t="n">
-        <v>31.94401902424323</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>266.5900650540087</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.2391669125709</v>
@@ -35652,10 +35652,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>147.5459694702542</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,10 +35892,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -35965,22 +35965,22 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36126,7 +36126,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36208,7 +36208,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O22" t="n">
-        <v>277.1599674523495</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36521,19 +36521,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P25" t="n">
-        <v>258.5173486362903</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36755,22 +36755,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36992,22 +36992,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>416.9502437123842</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>457.7844406934096</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37153,7 +37153,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37229,25 +37229,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>388.294225678952</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>227.2024143463632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.2391669125709</v>
@@ -37314,10 +37314,10 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37466,25 +37466,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.10166275847632</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37551,16 +37551,16 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>395.7952529497134</v>
       </c>
       <c r="N40" t="n">
-        <v>305.9788645463482</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>274.195276247026</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
